--- a/database/punteggi.xlsx
+++ b/database/punteggi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanniromeo/Documents/_git_/fantasanremo/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myresources.deloitte.com/personal/giromeo_deloitte_it/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BC42C6-A805-C448-B0CE-68924B70B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{52BC42C6-A805-C448-B0CE-68924B70B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B618D6E4-8E53-4DA2-904C-6C1E8A161ABE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{24411E16-F3C4-4647-850E-78B82E938323}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{24411E16-F3C4-4647-850E-78B82E938323}"/>
   </bookViews>
   <sheets>
     <sheet name="Partecipanti" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>NomeSquadra</t>
   </si>
   <si>
-    <t>Cantante22</t>
-  </si>
-  <si>
     <t>pt1</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>pt5</t>
+  </si>
+  <si>
+    <t>Cantante2</t>
   </si>
 </sst>
 </file>
@@ -336,7 +336,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -400,44 +400,44 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -473,32 +473,35 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD97E7BC-0AB4-6C44-9EA8-4DB7036DE264}" name="Tabella1" displayName="Tabella1" ref="A1:O7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:O7" xr:uid="{BD97E7BC-0AB4-6C44-9EA8-4DB7036DE264}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O7">
+    <sortCondition descending="1" ref="N1:N7"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{DD5D0AFC-4FFA-F944-A1FC-46907F33771B}" name="Nome" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{9AED6FDF-1E78-364F-93E1-D1BA3B48FD15}" name="Cognome" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{D6182CB4-8687-D546-BE70-C1615DF59029}" name="NomeSquadra" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{3C9B9DF1-762F-0F4F-BD77-1C1CB9720480}" name="Cantante1" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{E251A8E6-DB1D-1E41-B9D5-B1C92159935C}" name="pt1" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{E251A8E6-DB1D-1E41-B9D5-B1C92159935C}" name="pt1" dataDxfId="19">
       <calculatedColumnFormula>Cantanti!G11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{774BDD11-48C6-8D4C-8FE8-48A0273AAC97}" name="Cantante22" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{1EF5840B-E78B-B34A-9882-E586AA70EA2B}" name="pt2" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{774BDD11-48C6-8D4C-8FE8-48A0273AAC97}" name="Cantante2" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{1EF5840B-E78B-B34A-9882-E586AA70EA2B}" name="pt2" dataDxfId="17">
       <calculatedColumnFormula>Cantanti!G10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B7B022A0-8F1D-FE4A-A816-0AC860268612}" name="Cantante3" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{5D2C39F3-B7B6-AE42-AD59-24A534A8C019}" name="pt3" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{B7B022A0-8F1D-FE4A-A816-0AC860268612}" name="Cantante3" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{5D2C39F3-B7B6-AE42-AD59-24A534A8C019}" name="pt3" dataDxfId="15">
       <calculatedColumnFormula>Cantanti!G14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F7DA9FCB-783A-194F-B868-2AD44522A015}" name="Cantante4" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{3F34DBD6-E28E-E54B-B0B9-9F3C8CEE9F47}" name="pt4" dataDxfId="10">
+    <tableColumn id="10" xr3:uid="{F7DA9FCB-783A-194F-B868-2AD44522A015}" name="Cantante4" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{3F34DBD6-E28E-E54B-B0B9-9F3C8CEE9F47}" name="pt4" dataDxfId="13">
       <calculatedColumnFormula>Cantanti!G22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7D5EF2D0-9EC1-4842-B186-7D9EC0A6969F}" name="Cantante5" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{47A04DAF-045B-BA42-8BF9-43A3195334B4}" name="pt5" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{7D5EF2D0-9EC1-4842-B186-7D9EC0A6969F}" name="Cantante5" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{47A04DAF-045B-BA42-8BF9-43A3195334B4}" name="pt5" dataDxfId="11">
       <calculatedColumnFormula>Cantanti!G24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{1FA11DFA-7614-FD4A-8113-6441E69AE1AF}" name="Totale" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{E64712B6-3EB3-1443-83B0-6312B0132C3C}" name="codice" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{1FA11DFA-7614-FD4A-8113-6441E69AE1AF}" name="Totale" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{E64712B6-3EB3-1443-83B0-6312B0132C3C}" name="codice" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -842,16 +845,16 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:X31"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -863,11 +866,11 @@
     <col min="14" max="14" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" style="1"/>
+    <col min="18" max="18" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="23" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="1"/>
+    <col min="25" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -884,31 +887,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -932,39 +935,39 @@
       </c>
       <c r="E2" s="1">
         <f>Cantanti!G11</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1">
         <f>Cantanti!G10</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1">
         <f>Cantanti!G14</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="1">
         <f>Cantanti!G22</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="1">
         <f>Cantanti!G24</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N2" s="1">
-        <f>SUM(Cantanti!G25,Cantanti!G5,Cantanti!G11,Cantanti!G16,Cantanti!G19)</f>
-        <v>0</v>
+        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
+        <v>268</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>62</v>
@@ -973,271 +976,271 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
-        <f>Cantanti!G31</f>
-        <v>0</v>
+        <f>Cantanti!G15</f>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1">
-        <f>Cantanti!G8</f>
-        <v>0</v>
+        <f>Cantanti!G29</f>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I3" s="1">
-        <f>Cantanti!G16</f>
-        <v>0</v>
+        <f>Cantanti!G9</f>
+        <v>115</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K3" s="1">
-        <f>Cantanti!G19</f>
-        <v>0</v>
+        <f>Cantanti!G26</f>
+        <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="M3" s="1">
-        <f>Cantanti!G23</f>
-        <v>0</v>
+        <f>Cantanti!G17</f>
+        <v>65</v>
       </c>
       <c r="N3" s="1">
-        <f>SUM(Cantanti!G26,Cantanti!G6,Cantanti!G12,Cantanti!G17,Cantanti!G20)</f>
-        <v>0</v>
+        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]],)</f>
+        <v>265</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Cantanti!G2</f>
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1">
-        <f>Cantanti!G27</f>
-        <v>0</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1">
-        <f>Cantanti!G7</f>
-        <v>0</v>
+        <f>Cantanti!G12</f>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1">
-        <f>Cantanti!G13</f>
-        <v>0</v>
+        <f>Cantanti!G28</f>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1">
-        <f>Cantanti!G18</f>
-        <v>0</v>
+        <f>Cantanti!G20</f>
+        <v>85</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1">
+        <f>Tabella2[[#This Row],[Totale]]</f>
         <v>30</v>
       </c>
-      <c r="M4" s="1">
-        <f>Cantanti!G21</f>
-        <v>0</v>
-      </c>
       <c r="N4" s="1">
-        <f>SUM(Cantanti!G27,Cantanti!G7,Cantanti!G13,Cantanti!G18,Cantanti!G21)</f>
-        <v>0</v>
+        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
+        <v>215</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
-        <f>Tabella2[[#This Row],[Totale]]</f>
-        <v>0</v>
+        <f>Cantanti!G27</f>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
-        <f>Cantanti!G25</f>
-        <v>0</v>
+        <f>Cantanti!G7</f>
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1">
+        <f>Cantanti!G13</f>
         <v>35</v>
       </c>
-      <c r="I5" s="1">
-        <f>Cantanti!G4</f>
-        <v>0</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1">
-        <f>Cantanti!G30</f>
-        <v>0</v>
+        <f>Cantanti!G18</f>
+        <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1">
-        <f>Cantanti!G3</f>
-        <v>0</v>
+        <f>Cantanti!G21</f>
+        <v>75</v>
       </c>
       <c r="N5" s="1">
-        <f>SUM(Tabella2[[#This Row],[Totale]],Cantanti!G25,Cantanti!G4,Cantanti!G30,Cantanti!G3)</f>
-        <v>0</v>
+        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
+        <v>245</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Tabella2[[#This Row],[Totale]]</f>
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Cantanti!G25</f>
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1">
-        <f>Cantanti!G2</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1">
-        <f>Cantanti!G12</f>
-        <v>0</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1">
-        <f>Cantanti!G28</f>
-        <v>0</v>
+        <f>Cantanti!G4</f>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1">
-        <f>Cantanti!G20</f>
-        <v>0</v>
+        <f>Cantanti!G30</f>
+        <v>55</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1">
-        <f>Tabella2[[#This Row],[Totale]]</f>
-        <v>0</v>
+        <f>Cantanti!G3</f>
+        <v>50</v>
       </c>
       <c r="N6" s="1">
-        <f>SUM(Cantanti!G2,Cantanti!G12,Cantanti!G28,Cantanti!G20,Tabella2[[#This Row],[Totale]])</f>
-        <v>0</v>
+        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
+        <v>240</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Cantanti!G31</f>
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Cantanti!G8</f>
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1">
+        <f>Cantanti!G16</f>
         <v>50</v>
       </c>
-      <c r="E7" s="1">
-        <f>Cantanti!G15</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="1">
-        <f>Cantanti!G29</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="1">
-        <f>Cantanti!G9</f>
-        <v>0</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1">
-        <f>Cantanti!G26</f>
-        <v>0</v>
+        <f>Cantanti!G19</f>
+        <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="M7" s="1">
-        <f>Cantanti!G17</f>
-        <v>0</v>
+        <f>Cantanti!G23</f>
+        <v>50</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(Cantanti!G15,Cantanti!G29,Cantanti!G9,Cantanti!G26,Cantanti!G17)</f>
-        <v>0</v>
+        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
+        <v>165</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z7" s="6"/>
     </row>
@@ -1261,12 +1264,12 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1298,420 +1301,480 @@
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>25</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>65</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>55</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>115</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>55</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>30</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>35</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>45</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>35</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>65</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>40</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>85</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>75</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>68</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>50</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>50</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>40</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>40</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>40</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1">
+        <v>45</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>10</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>55</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>35</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/database/punteggi.xlsx
+++ b/database/punteggi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myresources.deloitte.com/personal/giromeo_deloitte_it/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{52BC42C6-A805-C448-B0CE-68924B70B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B618D6E4-8E53-4DA2-904C-6C1E8A161ABE}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{52BC42C6-A805-C448-B0CE-68924B70B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8B2956-E54A-459E-8FD8-44453BFA2819}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{24411E16-F3C4-4647-850E-78B82E938323}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{24411E16-F3C4-4647-850E-78B82E938323}"/>
   </bookViews>
   <sheets>
     <sheet name="Partecipanti" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -844,11 +844,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E1FD28-AD58-2347-9A23-32DB87F9DBF0}">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -873,7 +873,7 @@
     <col min="25" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,331 +920,331 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Cantanti!G15</f>
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1">
+        <f>Cantanti!G29</f>
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1">
+        <f>Cantanti!G9</f>
+        <v>210</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="1">
+        <f>Cantanti!G26</f>
+        <v>105</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="1">
+        <f>Cantanti!G17</f>
+        <v>98</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]],)</f>
+        <v>543</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Cantanti!G27</f>
+        <v>70</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Cantanti!G7</f>
+        <v>95</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1">
+        <f>Cantanti!G13</f>
+        <v>90</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1">
+        <f>Cantanti!G18</f>
+        <v>100</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1">
+        <f>Cantanti!G21</f>
+        <v>145</v>
+      </c>
+      <c r="N3" s="1">
+        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
+        <v>500</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E4" s="1">
         <f>Cantanti!G11</f>
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G4" s="1">
         <f>Cantanti!G10</f>
-        <v>55</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I4" s="1">
         <f>Cantanti!G14</f>
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K4" s="1">
         <f>Cantanti!G22</f>
-        <v>68</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M4" s="1">
         <f>Cantanti!G24</f>
-        <v>50</v>
-      </c>
-      <c r="N2" s="1">
-        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
-        <v>268</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1">
-        <f>Cantanti!G15</f>
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1">
-        <f>Cantanti!G29</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="1">
-        <f>Cantanti!G9</f>
-        <v>115</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="1">
-        <f>Cantanti!G26</f>
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="1">
-        <f>Cantanti!G17</f>
-        <v>65</v>
-      </c>
-      <c r="N3" s="1">
-        <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]],)</f>
-        <v>265</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="6"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1">
-        <f>Cantanti!G2</f>
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="1">
-        <f>Cantanti!G12</f>
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="1">
-        <f>Cantanti!G28</f>
-        <v>45</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="1">
-        <f>Cantanti!G20</f>
-        <v>85</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="1">
-        <f>Tabella2[[#This Row],[Totale]]</f>
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N4" s="1">
         <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
-        <v>215</v>
+        <v>491</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1">
-        <f>Cantanti!G27</f>
-        <v>40</v>
+        <f>Tabella2[[#This Row],[Totale]]</f>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1">
-        <f>Cantanti!G7</f>
+        <f>Cantanti!G25</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1">
+        <f>Cantanti!G4</f>
         <v>55</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1">
-        <f>Cantanti!G13</f>
-        <v>35</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1">
-        <f>Cantanti!G18</f>
-        <v>40</v>
+        <f>Cantanti!G30</f>
+        <v>75</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M5" s="1">
-        <f>Cantanti!G21</f>
-        <v>75</v>
+        <f>Cantanti!G3</f>
+        <v>98</v>
       </c>
       <c r="N5" s="1">
         <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
-        <v>245</v>
+        <v>428</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
-        <f>Tabella2[[#This Row],[Totale]]</f>
+        <f>Cantanti!G31</f>
+        <v>95</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Cantanti!G8</f>
+        <v>70</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <f>Cantanti!G16</f>
         <v>65</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1">
-        <f>Cantanti!G25</f>
-        <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1">
-        <f>Cantanti!G4</f>
-        <v>30</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1">
-        <f>Cantanti!G30</f>
-        <v>55</v>
+        <f>Cantanti!G19</f>
+        <v>50</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1">
-        <f>Cantanti!G3</f>
-        <v>50</v>
+        <f>Cantanti!G23</f>
+        <v>65</v>
       </c>
       <c r="N6" s="1">
         <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1">
-        <f>Cantanti!G31</f>
+        <f>Cantanti!G2</f>
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1">
-        <f>Cantanti!G8</f>
-        <v>15</v>
+        <f>Cantanti!G12</f>
+        <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1">
-        <f>Cantanti!G16</f>
-        <v>50</v>
+        <f>Cantanti!G28</f>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K7" s="1">
-        <f>Cantanti!G19</f>
-        <v>15</v>
+        <f>Cantanti!G20</f>
+        <v>95</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M7" s="1">
-        <f>Cantanti!G23</f>
-        <v>50</v>
+        <f>Tabella2[[#This Row],[Totale]]</f>
+        <v>95</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(Tabella1[[#This Row],[pt1]],Tabella1[[#This Row],[pt2]],Tabella1[[#This Row],[pt3]],Tabella1[[#This Row],[pt4]],Tabella1[[#This Row],[pt5]])</f>
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z7" s="6"/>
     </row>
-    <row r="46" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="21:21">
       <c r="U46" s="4"/>
     </row>
   </sheetData>
@@ -1264,17 +1264,17 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1297,484 +1297,544 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="1">
         <v>25</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>50</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>48</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>25</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>65</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>58</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>55</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>15</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>55</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>115</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>95</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>55</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>35</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>70</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1">
         <v>35</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>55</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>45</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>25</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="1">
         <v>35</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>50</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="1">
         <v>65</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>33</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>40</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>60</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>35</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>85</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1">
         <v>75</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <v>70</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>68</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>50</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>50</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1">
         <v>50</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>43</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>40</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <v>60</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="1">
         <v>40</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>65</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>40</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>30</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="1">
         <v>45</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>30</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="1">
         <v>10</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>35</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="1">
         <v>55</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1">
         <v>35</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>60</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
         <f>SUM(Tabella2[[#This Row],[06-feb]:[10-feb]])</f>
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
